--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3602,28 +3602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8514.39898835145</v>
+        <v>8747.414667483483</v>
       </c>
       <c r="AB2" t="n">
-        <v>11649.77632463594</v>
+        <v>11968.59865675065</v>
       </c>
       <c r="AC2" t="n">
-        <v>10537.93802277601</v>
+        <v>10826.33239898363</v>
       </c>
       <c r="AD2" t="n">
-        <v>8514398.988351449</v>
+        <v>8747414.667483483</v>
       </c>
       <c r="AE2" t="n">
-        <v>11649776.32463594</v>
+        <v>11968598.65675065</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.622385836057876e-07</v>
+        <v>8.105593582851951e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.06041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10537938.02277601</v>
+        <v>10826332.39898363</v>
       </c>
     </row>
     <row r="3">
@@ -3708,28 +3708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2849.218802918241</v>
+        <v>2978.633978995922</v>
       </c>
       <c r="AB3" t="n">
-        <v>3898.426864815179</v>
+        <v>4075.498418119292</v>
       </c>
       <c r="AC3" t="n">
-        <v>3526.36647631354</v>
+        <v>3686.538569091787</v>
       </c>
       <c r="AD3" t="n">
-        <v>2849218.802918241</v>
+        <v>2978633.978995922</v>
       </c>
       <c r="AE3" t="n">
-        <v>3898426.864815179</v>
+        <v>4075498.418119292</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.057078561704083e-06</v>
+        <v>1.523952545442274e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.75208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3526366.47631354</v>
+        <v>3686538.569091788</v>
       </c>
     </row>
     <row r="4">
@@ -3814,28 +3814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2173.293070607898</v>
+        <v>2285.441511094614</v>
       </c>
       <c r="AB4" t="n">
-        <v>2973.595458129205</v>
+        <v>3127.041902043317</v>
       </c>
       <c r="AC4" t="n">
-        <v>2689.799681072791</v>
+        <v>2828.601411743059</v>
       </c>
       <c r="AD4" t="n">
-        <v>2173293.070607898</v>
+        <v>2285441.511094614</v>
       </c>
       <c r="AE4" t="n">
-        <v>2973595.458129205</v>
+        <v>3127041.902043317</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.239871749368341e-06</v>
+        <v>1.787478979259438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.51041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2689799.681072791</v>
+        <v>2828601.411743059</v>
       </c>
     </row>
     <row r="5">
@@ -3920,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1895.568196967468</v>
+        <v>1999.083269658698</v>
       </c>
       <c r="AB5" t="n">
-        <v>2593.600033657672</v>
+        <v>2735.233922876515</v>
       </c>
       <c r="AC5" t="n">
-        <v>2346.070486585894</v>
+        <v>2474.187036202102</v>
       </c>
       <c r="AD5" t="n">
-        <v>1895568.196967468</v>
+        <v>1999083.269658698</v>
       </c>
       <c r="AE5" t="n">
-        <v>2593600.033657672</v>
+        <v>2735233.922876515</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.336593124804418e-06</v>
+        <v>1.926918744319916e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.73958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2346070.486585894</v>
+        <v>2474187.036202102</v>
       </c>
     </row>
     <row r="6">
@@ -4026,28 +4026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1738.175457386267</v>
+        <v>1833.142503136585</v>
       </c>
       <c r="AB6" t="n">
-        <v>2378.248343685063</v>
+        <v>2508.186445331016</v>
       </c>
       <c r="AC6" t="n">
-        <v>2151.271659656274</v>
+        <v>2268.808651250409</v>
       </c>
       <c r="AD6" t="n">
-        <v>1738175.457386266</v>
+        <v>1833142.503136585</v>
       </c>
       <c r="AE6" t="n">
-        <v>2378248.343685063</v>
+        <v>2508186.445331016</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.396843393364145e-06</v>
+        <v>2.013779412449596e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.75833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2151271.659656274</v>
+        <v>2268808.651250409</v>
       </c>
     </row>
     <row r="7">
@@ -4132,28 +4132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1627.057964515712</v>
+        <v>1713.391731979098</v>
       </c>
       <c r="AB7" t="n">
-        <v>2226.212487781761</v>
+        <v>2344.338157202176</v>
       </c>
       <c r="AC7" t="n">
-        <v>2013.74589245672</v>
+        <v>2120.597813778069</v>
       </c>
       <c r="AD7" t="n">
-        <v>1627057.964515712</v>
+        <v>1713391.731979098</v>
       </c>
       <c r="AE7" t="n">
-        <v>2226212.487781761</v>
+        <v>2344338.157202176</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.439587530623225e-06</v>
+        <v>2.075402114052492e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.1125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2013745.89245672</v>
+        <v>2120597.813778069</v>
       </c>
     </row>
     <row r="8">
@@ -4238,28 +4238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1530.860118352743</v>
+        <v>1625.741823248489</v>
       </c>
       <c r="AB8" t="n">
-        <v>2094.590350712137</v>
+        <v>2224.411685235893</v>
       </c>
       <c r="AC8" t="n">
-        <v>1894.685587416191</v>
+        <v>2012.116955978387</v>
       </c>
       <c r="AD8" t="n">
-        <v>1530860.118352743</v>
+        <v>1625741.823248489</v>
       </c>
       <c r="AE8" t="n">
-        <v>2094590.350712137</v>
+        <v>2224411.685235893</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.469639722689337e-06</v>
+        <v>2.118727289923471e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.67916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1894685.587416191</v>
+        <v>2012116.955978387</v>
       </c>
     </row>
     <row r="9">
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1460.318828709935</v>
+        <v>1546.567255318749</v>
       </c>
       <c r="AB9" t="n">
-        <v>1998.072646160787</v>
+        <v>2116.081548459005</v>
       </c>
       <c r="AC9" t="n">
-        <v>1807.379397123773</v>
+        <v>1914.125695413183</v>
       </c>
       <c r="AD9" t="n">
-        <v>1460318.828709935</v>
+        <v>1546567.255318749</v>
       </c>
       <c r="AE9" t="n">
-        <v>1998072.646160787</v>
+        <v>2116081.548459005</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.493418884372716e-06</v>
+        <v>2.153008861122352e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.35208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1807379.397123773</v>
+        <v>1914125.695413183</v>
       </c>
     </row>
     <row r="10">
@@ -4450,28 +4450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1427.761579517467</v>
+        <v>1514.010006126281</v>
       </c>
       <c r="AB10" t="n">
-        <v>1953.526381491188</v>
+        <v>2071.535283789406</v>
       </c>
       <c r="AC10" t="n">
-        <v>1767.084565433165</v>
+        <v>1873.830863722575</v>
       </c>
       <c r="AD10" t="n">
-        <v>1427761.579517467</v>
+        <v>1514010.006126281</v>
       </c>
       <c r="AE10" t="n">
-        <v>1953526.381491188</v>
+        <v>2071535.283789406</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.502609603305556e-06</v>
+        <v>2.166258793548913e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.22708333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1767084.565433165</v>
+        <v>1873830.863722575</v>
       </c>
     </row>
     <row r="11">
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1425.538612834998</v>
+        <v>1511.787039443812</v>
       </c>
       <c r="AB11" t="n">
-        <v>1950.484820405866</v>
+        <v>2068.493722704083</v>
       </c>
       <c r="AC11" t="n">
-        <v>1764.333286668968</v>
+        <v>1871.079584958379</v>
       </c>
       <c r="AD11" t="n">
-        <v>1425538.612834998</v>
+        <v>1511787.039443812</v>
       </c>
       <c r="AE11" t="n">
-        <v>1950484.820405866</v>
+        <v>2068493.722704083</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.505527291855663e-06</v>
+        <v>2.170465121303377e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.1875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1764333.286668968</v>
+        <v>1871079.584958378</v>
       </c>
     </row>
     <row r="12">
@@ -4662,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1431.634523973845</v>
+        <v>1517.882950582659</v>
       </c>
       <c r="AB12" t="n">
-        <v>1958.825514958656</v>
+        <v>2076.834417256873</v>
       </c>
       <c r="AC12" t="n">
-        <v>1771.877957039878</v>
+        <v>1878.624255329288</v>
       </c>
       <c r="AD12" t="n">
-        <v>1431634.523973845</v>
+        <v>1517882.950582659</v>
       </c>
       <c r="AE12" t="n">
-        <v>1958825.514958655</v>
+        <v>2076834.417256873</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.505527291855663e-06</v>
+        <v>2.170465121303377e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.1875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1771877.957039878</v>
+        <v>1878624.255329288</v>
       </c>
     </row>
   </sheetData>
@@ -4959,28 +4959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5128.690601016889</v>
+        <v>5313.617986171792</v>
       </c>
       <c r="AB2" t="n">
-        <v>7017.300742172265</v>
+        <v>7270.326548961658</v>
       </c>
       <c r="AC2" t="n">
-        <v>6347.579408182527</v>
+        <v>6576.45678709588</v>
       </c>
       <c r="AD2" t="n">
-        <v>5128690.601016888</v>
+        <v>5313617.986171792</v>
       </c>
       <c r="AE2" t="n">
-        <v>7017300.742172265</v>
+        <v>7270326.548961658</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.399382023304888e-07</v>
+        <v>1.08324169251148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.49375</v>
       </c>
       <c r="AH2" t="n">
-        <v>6347579.408182527</v>
+        <v>6576456.78709588</v>
       </c>
     </row>
     <row r="3">
@@ -5065,28 +5065,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2223.397857294005</v>
+        <v>2332.739112163024</v>
       </c>
       <c r="AB3" t="n">
-        <v>3042.151037740494</v>
+        <v>3191.756566448013</v>
       </c>
       <c r="AC3" t="n">
-        <v>2751.812412384224</v>
+        <v>2887.13979940457</v>
       </c>
       <c r="AD3" t="n">
-        <v>2223397.857294005</v>
+        <v>2332739.112163024</v>
       </c>
       <c r="AE3" t="n">
-        <v>3042151.037740494</v>
+        <v>3191756.566448012</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.196306369543909e-06</v>
+        <v>1.751347521219356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.27916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2751812.412384225</v>
+        <v>2887139.79940457</v>
       </c>
     </row>
     <row r="4">
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1762.505588639966</v>
+        <v>1855.097337253551</v>
       </c>
       <c r="AB4" t="n">
-        <v>2411.537902636011</v>
+        <v>2538.226017948771</v>
       </c>
       <c r="AC4" t="n">
-        <v>2181.384109823134</v>
+        <v>2295.98128921833</v>
       </c>
       <c r="AD4" t="n">
-        <v>1762505.588639966</v>
+        <v>1855097.337253551</v>
       </c>
       <c r="AE4" t="n">
-        <v>2411537.902636011</v>
+        <v>2538226.017948771</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.36140781628051e-06</v>
+        <v>1.993049828298197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2181384.109823134</v>
+        <v>2295981.28921833</v>
       </c>
     </row>
     <row r="5">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1548.296585046347</v>
+        <v>1640.88824415138</v>
       </c>
       <c r="AB5" t="n">
-        <v>2118.447693684947</v>
+        <v>2245.135686528158</v>
       </c>
       <c r="AC5" t="n">
-        <v>1916.266019059667</v>
+        <v>2030.863087673637</v>
       </c>
       <c r="AD5" t="n">
-        <v>1548296.585046347</v>
+        <v>1640888.24415138</v>
       </c>
       <c r="AE5" t="n">
-        <v>2118447.693684947</v>
+        <v>2245135.686528158</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.448486001625134e-06</v>
+        <v>2.120529015852577e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.70625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1916266.019059667</v>
+        <v>2030863.087673637</v>
       </c>
     </row>
     <row r="6">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1412.974475506293</v>
+        <v>1505.480793756755</v>
       </c>
       <c r="AB6" t="n">
-        <v>1933.294013422113</v>
+        <v>2059.865239143127</v>
       </c>
       <c r="AC6" t="n">
-        <v>1748.783146176296</v>
+        <v>1863.274591758327</v>
       </c>
       <c r="AD6" t="n">
-        <v>1412974.475506293</v>
+        <v>1505480.793756755</v>
       </c>
       <c r="AE6" t="n">
-        <v>1933294.013422113</v>
+        <v>2059865.239143127</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.502513714542596e-06</v>
+        <v>2.199623555097755e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.925</v>
       </c>
       <c r="AH6" t="n">
-        <v>1748783.146176296</v>
+        <v>1863274.591758327</v>
       </c>
     </row>
     <row r="7">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1322.254345885284</v>
+        <v>1414.590071935154</v>
       </c>
       <c r="AB7" t="n">
-        <v>1809.166729784997</v>
+        <v>1935.504543731164</v>
       </c>
       <c r="AC7" t="n">
-        <v>1636.50239627577</v>
+        <v>1750.78270657515</v>
       </c>
       <c r="AD7" t="n">
-        <v>1322254.345885284</v>
+        <v>1414590.071935154</v>
       </c>
       <c r="AE7" t="n">
-        <v>1809166.729784997</v>
+        <v>1935504.543731164</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.536620594764234e-06</v>
+        <v>2.249554744677114e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.46041666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1636502.39627577</v>
+        <v>1750782.70657515</v>
       </c>
     </row>
     <row r="8">
@@ -5595,28 +5595,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1308.328245979939</v>
+        <v>1392.417230183949</v>
       </c>
       <c r="AB8" t="n">
-        <v>1790.112425518337</v>
+        <v>1905.166683450426</v>
       </c>
       <c r="AC8" t="n">
-        <v>1619.266608065435</v>
+        <v>1723.34024910015</v>
       </c>
       <c r="AD8" t="n">
-        <v>1308328.245979939</v>
+        <v>1392417.230183949</v>
       </c>
       <c r="AE8" t="n">
-        <v>1790112.425518337</v>
+        <v>1905166.683450426</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.54356270312793e-06</v>
+        <v>2.259717730166718e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.36875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1619266.608065435</v>
+        <v>1723340.24910015</v>
       </c>
     </row>
     <row r="9">
@@ -5701,28 +5701,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1315.071034776503</v>
+        <v>1399.160018980513</v>
       </c>
       <c r="AB9" t="n">
-        <v>1799.338206620643</v>
+        <v>1914.392464552732</v>
       </c>
       <c r="AC9" t="n">
-        <v>1627.611893567803</v>
+        <v>1731.685534602517</v>
       </c>
       <c r="AD9" t="n">
-        <v>1315071.034776503</v>
+        <v>1399160.018980513</v>
       </c>
       <c r="AE9" t="n">
-        <v>1799338.206620643</v>
+        <v>1914392.464552732</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.543411787728719e-06</v>
+        <v>2.259496795699552e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.37083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1627611.893567803</v>
+        <v>1731685.534602517</v>
       </c>
     </row>
   </sheetData>
@@ -5998,28 +5998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1628.350303381539</v>
+        <v>1737.007004806326</v>
       </c>
       <c r="AB2" t="n">
-        <v>2227.980722831954</v>
+        <v>2376.649615316698</v>
       </c>
       <c r="AC2" t="n">
-        <v>2015.345369635456</v>
+        <v>2149.825511679557</v>
       </c>
       <c r="AD2" t="n">
-        <v>1628350.303381539</v>
+        <v>1737007.004806326</v>
       </c>
       <c r="AE2" t="n">
-        <v>2227980.722831954</v>
+        <v>2376649.615316698</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305433703214847e-06</v>
+        <v>2.019667072360794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.87291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2015345.369635456</v>
+        <v>2149825.511679557</v>
       </c>
     </row>
     <row r="3">
@@ -6104,28 +6104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1061.575531815395</v>
+        <v>1154.61231491713</v>
       </c>
       <c r="AB3" t="n">
-        <v>1452.494476036951</v>
+        <v>1579.791507169935</v>
       </c>
       <c r="AC3" t="n">
-        <v>1313.870441832785</v>
+        <v>1429.018422976942</v>
       </c>
       <c r="AD3" t="n">
-        <v>1061575.531815395</v>
+        <v>1154612.31491713</v>
       </c>
       <c r="AE3" t="n">
-        <v>1452494.476036951</v>
+        <v>1579791.507169935</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.606363789340354e-06</v>
+        <v>2.485243060274718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.84166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1313870.441832785</v>
+        <v>1429018.422976942</v>
       </c>
     </row>
     <row r="4">
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1049.882668022088</v>
+        <v>1135.322844098726</v>
       </c>
       <c r="AB4" t="n">
-        <v>1436.495783942205</v>
+        <v>1553.398802204802</v>
       </c>
       <c r="AC4" t="n">
-        <v>1299.398642457256</v>
+        <v>1405.144600731287</v>
       </c>
       <c r="AD4" t="n">
-        <v>1049882.668022088</v>
+        <v>1135322.844098726</v>
       </c>
       <c r="AE4" t="n">
-        <v>1436495.783942205</v>
+        <v>1553398.802204802</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.618993759379198e-06</v>
+        <v>2.504783182878828e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.66875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1299398.642457256</v>
+        <v>1405144.600731287</v>
       </c>
     </row>
   </sheetData>
@@ -6507,28 +6507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2486.575840905568</v>
+        <v>2614.74869689289</v>
       </c>
       <c r="AB2" t="n">
-        <v>3402.242765511057</v>
+        <v>3577.614521660246</v>
       </c>
       <c r="AC2" t="n">
-        <v>3077.537491048266</v>
+        <v>3236.172012926374</v>
       </c>
       <c r="AD2" t="n">
-        <v>2486575.840905569</v>
+        <v>2614748.69689289</v>
       </c>
       <c r="AE2" t="n">
-        <v>3402242.765511057</v>
+        <v>3577614.521660246</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.075359548586465e-06</v>
+        <v>1.625184399682471e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.21041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3077537.491048266</v>
+        <v>3236172.012926375</v>
       </c>
     </row>
     <row r="3">
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1420.94944204193</v>
+        <v>1509.185652179671</v>
       </c>
       <c r="AB3" t="n">
-        <v>1944.205714466864</v>
+        <v>2064.93438988418</v>
       </c>
       <c r="AC3" t="n">
-        <v>1758.653449788004</v>
+        <v>1867.859949867251</v>
       </c>
       <c r="AD3" t="n">
-        <v>1420949.44204193</v>
+        <v>1509185.652179671</v>
       </c>
       <c r="AE3" t="n">
-        <v>1944205.714466864</v>
+        <v>2064934.38988418</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.455722678805587e-06</v>
+        <v>2.200024904199372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.05625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1758653.449788004</v>
+        <v>1867859.949867251</v>
       </c>
     </row>
     <row r="4">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1169.101157186107</v>
+        <v>1257.166685614705</v>
       </c>
       <c r="AB4" t="n">
-        <v>1599.615780364958</v>
+        <v>1720.110921537879</v>
       </c>
       <c r="AC4" t="n">
-        <v>1446.950695361774</v>
+        <v>1555.945949377144</v>
       </c>
       <c r="AD4" t="n">
-        <v>1169101.157186107</v>
+        <v>1257166.685614705</v>
       </c>
       <c r="AE4" t="n">
-        <v>1599615.780364958</v>
+        <v>1720110.921537878</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.583315901649105e-06</v>
+        <v>2.392855772296529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.19791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1446950.695361774</v>
+        <v>1555945.949377144</v>
       </c>
     </row>
     <row r="5">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1130.070851204882</v>
+        <v>1218.221630979501</v>
       </c>
       <c r="AB5" t="n">
-        <v>1546.212793825872</v>
+        <v>1666.824579651441</v>
       </c>
       <c r="AC5" t="n">
-        <v>1398.644414906416</v>
+        <v>1507.745181172498</v>
       </c>
       <c r="AD5" t="n">
-        <v>1130070.851204882</v>
+        <v>1218221.630979501</v>
       </c>
       <c r="AE5" t="n">
-        <v>1546212.793825872</v>
+        <v>1666824.579651441</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.601359387707784e-06</v>
+        <v>2.420124783946631e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.96041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1398644.414906416</v>
+        <v>1507745.181172498</v>
       </c>
     </row>
     <row r="6">
@@ -6931,28 +6931,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1136.526744104437</v>
+        <v>1224.677523879056</v>
       </c>
       <c r="AB6" t="n">
-        <v>1555.046031304936</v>
+        <v>1675.657817130505</v>
       </c>
       <c r="AC6" t="n">
-        <v>1406.634620598005</v>
+        <v>1515.735386864087</v>
       </c>
       <c r="AD6" t="n">
-        <v>1136526.744104437</v>
+        <v>1224677.523879056</v>
       </c>
       <c r="AE6" t="n">
-        <v>1555046.031304936</v>
+        <v>1675657.817130506</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.601359387707784e-06</v>
+        <v>2.420124783946631e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.95833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1406634.620598005</v>
+        <v>1515735.386864087</v>
       </c>
     </row>
   </sheetData>
@@ -7228,28 +7228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1138.943875018836</v>
+        <v>1229.564363318509</v>
       </c>
       <c r="AB2" t="n">
-        <v>1558.353256458306</v>
+        <v>1682.344206443705</v>
       </c>
       <c r="AC2" t="n">
-        <v>1409.626208824457</v>
+        <v>1521.783636565641</v>
       </c>
       <c r="AD2" t="n">
-        <v>1138943.875018836</v>
+        <v>1229564.363318509</v>
       </c>
       <c r="AE2" t="n">
-        <v>1558353.256458306</v>
+        <v>1682344.206443705</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.508313062108971e-06</v>
+        <v>2.383870680339997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.15833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1409626.208824457</v>
+        <v>1521783.636565641</v>
       </c>
     </row>
     <row r="3">
@@ -7334,28 +7334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>991.9019424967712</v>
+        <v>1082.522341287893</v>
       </c>
       <c r="AB3" t="n">
-        <v>1357.163997349386</v>
+        <v>1481.154824865238</v>
       </c>
       <c r="AC3" t="n">
-        <v>1227.638170233994</v>
+        <v>1339.795487193951</v>
       </c>
       <c r="AD3" t="n">
-        <v>991901.9424967712</v>
+        <v>1082522.341287893</v>
       </c>
       <c r="AE3" t="n">
-        <v>1357163.997349386</v>
+        <v>1481154.824865238</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.610103206142762e-06</v>
+        <v>2.544748780520641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.62916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1227638.170233994</v>
+        <v>1339795.487193951</v>
       </c>
     </row>
   </sheetData>
@@ -7631,28 +7631,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5782.665998710912</v>
+        <v>5985.790359805766</v>
       </c>
       <c r="AB2" t="n">
-        <v>7912.098732655598</v>
+        <v>8190.022444719953</v>
       </c>
       <c r="AC2" t="n">
-        <v>7156.979134310965</v>
+        <v>7408.378197364268</v>
       </c>
       <c r="AD2" t="n">
-        <v>5782665.998710913</v>
+        <v>5985790.359805766</v>
       </c>
       <c r="AE2" t="n">
-        <v>7912098.732655598</v>
+        <v>8190022.444719953</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.933589407681284e-07</v>
+        <v>1.010838493037962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>7156979.134310964</v>
+        <v>7408378.197364268</v>
       </c>
     </row>
     <row r="3">
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2369.063407804347</v>
+        <v>2487.616624083939</v>
       </c>
       <c r="AB3" t="n">
-        <v>3241.457070259297</v>
+        <v>3403.666810971819</v>
       </c>
       <c r="AC3" t="n">
-        <v>2932.096956887199</v>
+        <v>3078.825627608912</v>
       </c>
       <c r="AD3" t="n">
-        <v>2369063.407804347</v>
+        <v>2487616.624083939</v>
       </c>
       <c r="AE3" t="n">
-        <v>3241457.070259297</v>
+        <v>3403666.810971819</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.158938402073388e-06</v>
+        <v>1.689600406072298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.88333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2932096.956887199</v>
+        <v>3078825.627608912</v>
       </c>
     </row>
     <row r="4">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1860.204006299402</v>
+        <v>1961.723605928094</v>
       </c>
       <c r="AB4" t="n">
-        <v>2545.213187827643</v>
+        <v>2684.116782768262</v>
       </c>
       <c r="AC4" t="n">
-        <v>2302.301613410516</v>
+        <v>2427.948444202423</v>
       </c>
       <c r="AD4" t="n">
-        <v>1860204.006299402</v>
+        <v>1961723.605928094</v>
       </c>
       <c r="AE4" t="n">
-        <v>2545213.187827643</v>
+        <v>2684116.782768262</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.329735621736288e-06</v>
+        <v>1.938603330802529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.43333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2302301.613410517</v>
+        <v>2427948.444202423</v>
       </c>
     </row>
     <row r="5">
@@ -7949,28 +7949,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1634.203350206825</v>
+        <v>1735.722860326965</v>
       </c>
       <c r="AB5" t="n">
-        <v>2235.989119716511</v>
+        <v>2374.892592187582</v>
       </c>
       <c r="AC5" t="n">
-        <v>2022.589456361206</v>
+        <v>2148.236176371885</v>
       </c>
       <c r="AD5" t="n">
-        <v>1634203.350206825</v>
+        <v>1735722.860326965</v>
       </c>
       <c r="AE5" t="n">
-        <v>2235989.119716511</v>
+        <v>2374892.592187582</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.418125426307893e-06</v>
+        <v>2.067465614966773e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.97083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2022589.456361206</v>
+        <v>2148236.176371885</v>
       </c>
     </row>
     <row r="6">
@@ -8055,28 +8055,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1499.526481911414</v>
+        <v>1592.571898887665</v>
       </c>
       <c r="AB6" t="n">
-        <v>2051.718286990632</v>
+        <v>2179.027131371629</v>
       </c>
       <c r="AC6" t="n">
-        <v>1855.905173284947</v>
+        <v>1971.063840237307</v>
       </c>
       <c r="AD6" t="n">
-        <v>1499526.481911414</v>
+        <v>1592571.898887665</v>
       </c>
       <c r="AE6" t="n">
-        <v>2051718.286990632</v>
+        <v>2179027.131371629</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.474359887422823e-06</v>
+        <v>2.149449064790387e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.13333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1855905.173284947</v>
+        <v>1971063.840237307</v>
       </c>
     </row>
     <row r="7">
@@ -8161,28 +8161,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1387.853626242728</v>
+        <v>1480.984294565</v>
       </c>
       <c r="AB7" t="n">
-        <v>1898.922559206051</v>
+        <v>2026.348048239697</v>
       </c>
       <c r="AC7" t="n">
-        <v>1717.692055309975</v>
+        <v>1832.956234513047</v>
       </c>
       <c r="AD7" t="n">
-        <v>1387853.626242728</v>
+        <v>1480984.294565</v>
       </c>
       <c r="AE7" t="n">
-        <v>1898922.559206051</v>
+        <v>2026348.048239697</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.514292337203904e-06</v>
+        <v>2.207666035808751e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.57708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1717692.055309975</v>
+        <v>1832956.234513047</v>
       </c>
     </row>
     <row r="8">
@@ -8267,28 +8267,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1337.551287720646</v>
+        <v>1422.207862899029</v>
       </c>
       <c r="AB8" t="n">
-        <v>1830.096680457585</v>
+        <v>1945.927541401157</v>
       </c>
       <c r="AC8" t="n">
-        <v>1655.434821831535</v>
+        <v>1760.210947976287</v>
       </c>
       <c r="AD8" t="n">
-        <v>1337551.287720646</v>
+        <v>1422207.862899029</v>
       </c>
       <c r="AE8" t="n">
-        <v>1830096.680457585</v>
+        <v>1945927.541401156</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.532389065381847e-06</v>
+        <v>2.234049007693478e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1655434.821831535</v>
+        <v>1760210.947976287</v>
       </c>
     </row>
     <row r="9">
@@ -8373,28 +8373,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1336.409215623685</v>
+        <v>1421.065790802067</v>
       </c>
       <c r="AB9" t="n">
-        <v>1828.534047029857</v>
+        <v>1944.364907973429</v>
       </c>
       <c r="AC9" t="n">
-        <v>1654.02132394498</v>
+        <v>1758.797450089732</v>
       </c>
       <c r="AD9" t="n">
-        <v>1336409.215623684</v>
+        <v>1421065.790802067</v>
       </c>
       <c r="AE9" t="n">
-        <v>1828534.047029857</v>
+        <v>1944364.907973429</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.532688184855862e-06</v>
+        <v>2.23448508987339e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.32916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1654021.32394498</v>
+        <v>1758797.450089732</v>
       </c>
     </row>
     <row r="10">
@@ -8479,28 +8479,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1340.526072050197</v>
+        <v>1425.18264722858</v>
       </c>
       <c r="AB10" t="n">
-        <v>1834.166911615498</v>
+        <v>1949.99777255907</v>
       </c>
       <c r="AC10" t="n">
-        <v>1659.116595840343</v>
+        <v>1763.892721985095</v>
       </c>
       <c r="AD10" t="n">
-        <v>1340526.072050197</v>
+        <v>1425182.64722858</v>
       </c>
       <c r="AE10" t="n">
-        <v>1834166.911615498</v>
+        <v>1949997.77255907</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.534333341962949e-06</v>
+        <v>2.236883541862911e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.30625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1659116.595840343</v>
+        <v>1763892.721985095</v>
       </c>
     </row>
   </sheetData>
@@ -8776,28 +8776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>982.3545056573377</v>
+        <v>1071.578849429863</v>
       </c>
       <c r="AB2" t="n">
-        <v>1344.100773062487</v>
+        <v>1466.181456512293</v>
       </c>
       <c r="AC2" t="n">
-        <v>1215.821681738686</v>
+        <v>1326.251156101358</v>
       </c>
       <c r="AD2" t="n">
-        <v>982354.5056573376</v>
+        <v>1071578.849429863</v>
       </c>
       <c r="AE2" t="n">
-        <v>1344100.773062487</v>
+        <v>1466181.456512293</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.571144078775318e-06</v>
+        <v>2.517341872293922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.73333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1215821.681738686</v>
+        <v>1326251.156101358</v>
       </c>
     </row>
     <row r="3">
@@ -8882,28 +8882,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>974.1422305244001</v>
+        <v>1063.366574296926</v>
       </c>
       <c r="AB3" t="n">
-        <v>1332.864375925593</v>
+        <v>1454.9450593754</v>
       </c>
       <c r="AC3" t="n">
-        <v>1205.657670574154</v>
+        <v>1316.087144936826</v>
       </c>
       <c r="AD3" t="n">
-        <v>974142.2305244001</v>
+        <v>1063366.574296926</v>
       </c>
       <c r="AE3" t="n">
-        <v>1332864.375925593</v>
+        <v>1454945.059375399</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.586536923475098e-06</v>
+        <v>2.542004825246448e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.50416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1205657.670574154</v>
+        <v>1316087.144936827</v>
       </c>
     </row>
   </sheetData>
@@ -9179,28 +9179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3588.774232110957</v>
+        <v>3736.886811560448</v>
       </c>
       <c r="AB2" t="n">
-        <v>4910.319229919555</v>
+        <v>5112.973395388202</v>
       </c>
       <c r="AC2" t="n">
-        <v>4441.685254292172</v>
+        <v>4624.99839063539</v>
       </c>
       <c r="AD2" t="n">
-        <v>3588774.232110957</v>
+        <v>3736886.811560448</v>
       </c>
       <c r="AE2" t="n">
-        <v>4910319.229919556</v>
+        <v>5112973.395388203</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.937543684227315e-07</v>
+        <v>1.327085093857241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.24791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4441685.254292171</v>
+        <v>4624998.39063539</v>
       </c>
     </row>
     <row r="3">
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1805.093596830111</v>
+        <v>1912.040022661187</v>
       </c>
       <c r="AB3" t="n">
-        <v>2469.808694292085</v>
+        <v>2616.137512257482</v>
       </c>
       <c r="AC3" t="n">
-        <v>2234.093618907122</v>
+        <v>2366.457019859687</v>
       </c>
       <c r="AD3" t="n">
-        <v>1805093.596830111</v>
+        <v>1912040.022661187</v>
       </c>
       <c r="AE3" t="n">
-        <v>2469808.694292085</v>
+        <v>2616137.512257482</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.31606419177627e-06</v>
+        <v>1.954148962144692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.61458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2234093.618907122</v>
+        <v>2366457.019859686</v>
       </c>
     </row>
     <row r="4">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1462.621864265304</v>
+        <v>1553.101953960986</v>
       </c>
       <c r="AB4" t="n">
-        <v>2001.223761010402</v>
+        <v>2125.02261143187</v>
       </c>
       <c r="AC4" t="n">
-        <v>1810.229773994757</v>
+        <v>1922.213435884779</v>
       </c>
       <c r="AD4" t="n">
-        <v>1462621.864265304</v>
+        <v>1553101.953960986</v>
       </c>
       <c r="AE4" t="n">
-        <v>2001223.761010402</v>
+        <v>2125022.61143187</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466111680559836e-06</v>
+        <v>2.17694595511133e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1810229.773994757</v>
+        <v>1922213.435884779</v>
       </c>
     </row>
     <row r="5">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1277.727134453267</v>
+        <v>1368.207134640397</v>
       </c>
       <c r="AB5" t="n">
-        <v>1748.242634701784</v>
+        <v>1872.041362653704</v>
       </c>
       <c r="AC5" t="n">
-        <v>1581.392811319794</v>
+        <v>1693.376362428588</v>
       </c>
       <c r="AD5" t="n">
-        <v>1277727.134453267</v>
+        <v>1368207.134640397</v>
       </c>
       <c r="AE5" t="n">
-        <v>1748242.634701784</v>
+        <v>1872041.362653704</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.544944920780839e-06</v>
+        <v>2.29400095556116e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.96875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1581392.811319794</v>
+        <v>1693376.362428588</v>
       </c>
     </row>
     <row r="6">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1218.509901842418</v>
+        <v>1308.989902029549</v>
       </c>
       <c r="AB6" t="n">
-        <v>1667.219004563697</v>
+        <v>1791.017732515617</v>
       </c>
       <c r="AC6" t="n">
-        <v>1508.101962724706</v>
+        <v>1620.085513833501</v>
       </c>
       <c r="AD6" t="n">
-        <v>1218509.901842418</v>
+        <v>1308989.902029549</v>
       </c>
       <c r="AE6" t="n">
-        <v>1667219.004563697</v>
+        <v>1791017.732515617</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.572000115649585e-06</v>
+        <v>2.33417367760903e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.60625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1508101.962724706</v>
+        <v>1620085.513833501</v>
       </c>
     </row>
     <row r="7">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1222.056506809499</v>
+        <v>1312.536506996629</v>
       </c>
       <c r="AB7" t="n">
-        <v>1672.071625944825</v>
+        <v>1795.870353896746</v>
       </c>
       <c r="AC7" t="n">
-        <v>1512.491456731917</v>
+        <v>1624.475007840712</v>
       </c>
       <c r="AD7" t="n">
-        <v>1222056.506809499</v>
+        <v>1312536.506996629</v>
       </c>
       <c r="AE7" t="n">
-        <v>1672071.625944825</v>
+        <v>1795870.353896746</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.57355501190641e-06</v>
+        <v>2.336482454738219e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.58541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1512491.456731917</v>
+        <v>1624475.007840712</v>
       </c>
     </row>
   </sheetData>
@@ -10006,28 +10006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4548.025179093536</v>
+        <v>4715.11005018045</v>
       </c>
       <c r="AB2" t="n">
-        <v>6222.808694746241</v>
+        <v>6451.421586631644</v>
       </c>
       <c r="AC2" t="n">
-        <v>5628.912566686281</v>
+        <v>5835.706965030342</v>
       </c>
       <c r="AD2" t="n">
-        <v>4548025.179093536</v>
+        <v>4715110.05018045</v>
       </c>
       <c r="AE2" t="n">
-        <v>6222808.694746241</v>
+        <v>6451421.586631645</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.891670693305835e-07</v>
+        <v>1.160424781883732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.22083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5628912.566686281</v>
+        <v>5835706.965030342</v>
       </c>
     </row>
     <row r="3">
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2078.993316793491</v>
+        <v>2187.653896374899</v>
       </c>
       <c r="AB3" t="n">
-        <v>2844.57037474881</v>
+        <v>2993.244573498534</v>
       </c>
       <c r="AC3" t="n">
-        <v>2573.088570562378</v>
+        <v>2707.573512448978</v>
       </c>
       <c r="AD3" t="n">
-        <v>2078993.316793491</v>
+        <v>2187653.896374898</v>
       </c>
       <c r="AE3" t="n">
-        <v>2844570.37474881</v>
+        <v>2993244.573498535</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.234025726173306e-06</v>
+        <v>1.814563848119349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.72083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2573088.570562378</v>
+        <v>2707573.512448978</v>
       </c>
     </row>
     <row r="4">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1655.467424175149</v>
+        <v>1755.684156780338</v>
       </c>
       <c r="AB4" t="n">
-        <v>2265.083563824708</v>
+        <v>2402.204518625334</v>
       </c>
       <c r="AC4" t="n">
-        <v>2048.907167558026</v>
+        <v>2172.941490882948</v>
       </c>
       <c r="AD4" t="n">
-        <v>1655467.424175149</v>
+        <v>1755684.156780338</v>
       </c>
       <c r="AE4" t="n">
-        <v>2265083.563824708</v>
+        <v>2402204.518625333</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.395210814851251e-06</v>
+        <v>2.051577249515679e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.74791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2048907.167558026</v>
+        <v>2172941.490882948</v>
       </c>
     </row>
     <row r="5">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1464.202012749737</v>
+        <v>1555.974987887258</v>
       </c>
       <c r="AB5" t="n">
-        <v>2003.385789878033</v>
+        <v>2128.953623199107</v>
       </c>
       <c r="AC5" t="n">
-        <v>1812.185461861689</v>
+        <v>1925.769277406161</v>
       </c>
       <c r="AD5" t="n">
-        <v>1464202.012749737</v>
+        <v>1555974.987887258</v>
       </c>
       <c r="AE5" t="n">
-        <v>2003385.789878033</v>
+        <v>2128953.623199107</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.478697987436804e-06</v>
+        <v>2.174340334548938e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.46458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1812185.461861689</v>
+        <v>1925769.277406161</v>
       </c>
     </row>
     <row r="6">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1327.423438070262</v>
+        <v>1419.281664553804</v>
       </c>
       <c r="AB6" t="n">
-        <v>1816.239309756736</v>
+        <v>1941.92378773046</v>
       </c>
       <c r="AC6" t="n">
-        <v>1642.899979141434</v>
+        <v>1756.589306936619</v>
       </c>
       <c r="AD6" t="n">
-        <v>1327423.438070262</v>
+        <v>1419281.664553804</v>
       </c>
       <c r="AE6" t="n">
-        <v>1816239.309756737</v>
+        <v>1941923.78773046</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.531258342440482e-06</v>
+        <v>2.251627313265133e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.72708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1642899.979141434</v>
+        <v>1756589.306936619</v>
       </c>
     </row>
     <row r="7">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1277.101019465784</v>
+        <v>1360.60082933623</v>
       </c>
       <c r="AB7" t="n">
-        <v>1747.385956553665</v>
+        <v>1861.634080170035</v>
       </c>
       <c r="AC7" t="n">
-        <v>1580.617893331775</v>
+        <v>1683.962336378448</v>
       </c>
       <c r="AD7" t="n">
-        <v>1277101.019465784</v>
+        <v>1360600.82933623</v>
       </c>
       <c r="AE7" t="n">
-        <v>1747385.956553665</v>
+        <v>1861634.080170035</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.552891879862285e-06</v>
+        <v>2.283438185664263e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.4375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1580617.893331775</v>
+        <v>1683962.336378448</v>
       </c>
     </row>
     <row r="8">
@@ -10642,28 +10642,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1282.13123374393</v>
+        <v>1365.631043614376</v>
       </c>
       <c r="AB8" t="n">
-        <v>1754.268517646417</v>
+        <v>1868.516641262787</v>
       </c>
       <c r="AC8" t="n">
-        <v>1586.843592453571</v>
+        <v>1690.188035500243</v>
       </c>
       <c r="AD8" t="n">
-        <v>1282131.23374393</v>
+        <v>1365631.043614377</v>
       </c>
       <c r="AE8" t="n">
-        <v>1754268.517646417</v>
+        <v>1868516.641262787</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.553653624137701e-06</v>
+        <v>2.284558286805077e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.42916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1586843.592453571</v>
+        <v>1690188.035500243</v>
       </c>
     </row>
     <row r="9">
@@ -10748,28 +10748,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1287.640424667269</v>
+        <v>1371.140234537716</v>
       </c>
       <c r="AB9" t="n">
-        <v>1761.80643571608</v>
+        <v>1876.05455933245</v>
       </c>
       <c r="AC9" t="n">
-        <v>1593.662102202199</v>
+        <v>1697.006545248872</v>
       </c>
       <c r="AD9" t="n">
-        <v>1287640.424667269</v>
+        <v>1371140.234537716</v>
       </c>
       <c r="AE9" t="n">
-        <v>1761806.43571608</v>
+        <v>1876054.55933245</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.553348926427535e-06</v>
+        <v>2.284110246348751e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.43125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1593662.102202199</v>
+        <v>1697006.545248872</v>
       </c>
     </row>
   </sheetData>
@@ -11045,28 +11045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7451.89172356783</v>
+        <v>7674.938258129818</v>
       </c>
       <c r="AB2" t="n">
-        <v>10196.00701044662</v>
+        <v>10501.18911915297</v>
       </c>
       <c r="AC2" t="n">
-        <v>9222.914411554926</v>
+        <v>9498.970368132108</v>
       </c>
       <c r="AD2" t="n">
-        <v>7451891.72356783</v>
+        <v>7674938.258129817</v>
       </c>
       <c r="AE2" t="n">
-        <v>10196007.01044662</v>
+        <v>10501189.11915297</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.04378101021158e-07</v>
+        <v>8.743976201880809e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.68958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9222914.411554927</v>
+        <v>9498970.368132109</v>
       </c>
     </row>
     <row r="3">
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2684.555039687517</v>
+        <v>2804.617721258105</v>
       </c>
       <c r="AB3" t="n">
-        <v>3673.126639510354</v>
+        <v>3837.401697226925</v>
       </c>
       <c r="AC3" t="n">
-        <v>3322.568588300965</v>
+        <v>3471.165465070551</v>
       </c>
       <c r="AD3" t="n">
-        <v>2684555.039687518</v>
+        <v>2804617.721258105</v>
       </c>
       <c r="AE3" t="n">
-        <v>3673126.639510354</v>
+        <v>3837401.697226925</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.09067454386227e-06</v>
+        <v>1.577957943779805e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.0875</v>
       </c>
       <c r="AH3" t="n">
-        <v>3322568.588300965</v>
+        <v>3471165.465070551</v>
       </c>
     </row>
     <row r="4">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2074.221727742907</v>
+        <v>2177.120418896837</v>
       </c>
       <c r="AB4" t="n">
-        <v>2838.041676102148</v>
+        <v>2978.832204908822</v>
       </c>
       <c r="AC4" t="n">
-        <v>2567.182961751468</v>
+        <v>2694.536640089581</v>
       </c>
       <c r="AD4" t="n">
-        <v>2074221.727742907</v>
+        <v>2177120.418896837</v>
       </c>
       <c r="AE4" t="n">
-        <v>2838041.676102148</v>
+        <v>2978832.204908822</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267576455183061e-06</v>
+        <v>1.833894765455294e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.16875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2567182.961751468</v>
+        <v>2694536.640089581</v>
       </c>
     </row>
     <row r="5">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1811.012819673156</v>
+        <v>1913.740829117942</v>
       </c>
       <c r="AB5" t="n">
-        <v>2477.907636123621</v>
+        <v>2618.4646306859</v>
       </c>
       <c r="AC5" t="n">
-        <v>2241.419609097193</v>
+        <v>2368.562041371427</v>
       </c>
       <c r="AD5" t="n">
-        <v>1811012.819673156</v>
+        <v>1913740.829117942</v>
       </c>
       <c r="AE5" t="n">
-        <v>2477907.636123621</v>
+        <v>2618464.6306859</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.362865265271069e-06</v>
+        <v>1.971755996083488e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.47916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2241419.609097193</v>
+        <v>2368562.041371427</v>
       </c>
     </row>
     <row r="6">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1658.329589258926</v>
+        <v>1752.731536550547</v>
       </c>
       <c r="AB6" t="n">
-        <v>2268.999704362143</v>
+        <v>2398.164613366522</v>
       </c>
       <c r="AC6" t="n">
-        <v>2052.449557138906</v>
+        <v>2169.287148511995</v>
       </c>
       <c r="AD6" t="n">
-        <v>1658329.589258926</v>
+        <v>1752731.536550547</v>
       </c>
       <c r="AE6" t="n">
-        <v>2268999.704362143</v>
+        <v>2398164.613366522</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.421685518411814e-06</v>
+        <v>2.05685552116262e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.54791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2052449.557138906</v>
+        <v>2169287.148511995</v>
       </c>
     </row>
     <row r="7">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1542.17629575437</v>
+        <v>1636.492902191419</v>
       </c>
       <c r="AB7" t="n">
-        <v>2110.073643867556</v>
+        <v>2239.121785749738</v>
       </c>
       <c r="AC7" t="n">
-        <v>1908.691176803796</v>
+        <v>2025.423145144946</v>
       </c>
       <c r="AD7" t="n">
-        <v>1542176.29575437</v>
+        <v>1636492.902191419</v>
       </c>
       <c r="AE7" t="n">
-        <v>2110073.643867556</v>
+        <v>2239121.785749738</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.463741999407447e-06</v>
+        <v>2.117701681594199e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.93125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1908691.176803796</v>
+        <v>2025423.145144946</v>
       </c>
     </row>
     <row r="8">
@@ -11681,28 +11681,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1458.99715708777</v>
+        <v>1553.31376352482</v>
       </c>
       <c r="AB8" t="n">
-        <v>1996.264276739305</v>
+        <v>2125.312418621486</v>
       </c>
       <c r="AC8" t="n">
-        <v>1805.743615941814</v>
+        <v>1922.475584282965</v>
       </c>
       <c r="AD8" t="n">
-        <v>1458997.15708777</v>
+        <v>1553313.76352482</v>
       </c>
       <c r="AE8" t="n">
-        <v>1996264.276739305</v>
+        <v>2125312.418621486</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.492710974079264e-06</v>
+        <v>2.159613197695671e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.52291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1805743.615941814</v>
+        <v>1922475.584282965</v>
       </c>
     </row>
     <row r="9">
@@ -11787,28 +11787,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1405.150707309055</v>
+        <v>1490.885408046326</v>
       </c>
       <c r="AB9" t="n">
-        <v>1922.589188614359</v>
+        <v>2039.895188511145</v>
       </c>
       <c r="AC9" t="n">
-        <v>1739.099974823878</v>
+        <v>1845.21045473052</v>
       </c>
       <c r="AD9" t="n">
-        <v>1405150.707309055</v>
+        <v>1490885.408046326</v>
       </c>
       <c r="AE9" t="n">
-        <v>1922589.188614359</v>
+        <v>2039895.188511145</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.510357050021487e-06</v>
+        <v>2.185143055219411e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.28333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1739099.974823878</v>
+        <v>1845210.45473052</v>
       </c>
     </row>
     <row r="10">
@@ -11893,28 +11893,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1395.015039717302</v>
+        <v>1480.749740454573</v>
       </c>
       <c r="AB10" t="n">
-        <v>1908.721121061227</v>
+        <v>2026.027120958013</v>
       </c>
       <c r="AC10" t="n">
-        <v>1726.555456174062</v>
+        <v>1832.665936080703</v>
       </c>
       <c r="AD10" t="n">
-        <v>1395015.039717302</v>
+        <v>1480749.740454573</v>
       </c>
       <c r="AE10" t="n">
-        <v>1908721.121061227</v>
+        <v>2026027.120958013</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.513445113311377e-06</v>
+        <v>2.189610780286065e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.24166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1726555.456174062</v>
+        <v>1832665.936080704</v>
       </c>
     </row>
     <row r="11">
@@ -11999,28 +11999,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1398.209534431922</v>
+        <v>1483.944235169193</v>
       </c>
       <c r="AB11" t="n">
-        <v>1913.09196966093</v>
+        <v>2030.397969557717</v>
       </c>
       <c r="AC11" t="n">
-        <v>1730.509157117934</v>
+        <v>1836.619637024575</v>
       </c>
       <c r="AD11" t="n">
-        <v>1398209.534431922</v>
+        <v>1483944.235169193</v>
       </c>
       <c r="AE11" t="n">
-        <v>1913091.96966093</v>
+        <v>2030397.969557717</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.514915619639895e-06</v>
+        <v>2.191738268413044e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.22291666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1730509.157117934</v>
+        <v>1836619.637024575</v>
       </c>
     </row>
   </sheetData>
@@ -12296,28 +12296,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2812.734865099849</v>
+        <v>2950.27828120966</v>
       </c>
       <c r="AB2" t="n">
-        <v>3848.507931534313</v>
+        <v>4036.700901443028</v>
       </c>
       <c r="AC2" t="n">
-        <v>3481.211735963338</v>
+        <v>3651.44383295445</v>
       </c>
       <c r="AD2" t="n">
-        <v>2812734.865099849</v>
+        <v>2950278.28120966</v>
       </c>
       <c r="AE2" t="n">
-        <v>3848507.931534313</v>
+        <v>4036700.901443028</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.011152464563706e-06</v>
+        <v>1.518432098478697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.77916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3481211.735963338</v>
+        <v>3651443.832954451</v>
       </c>
     </row>
     <row r="3">
@@ -12402,28 +12402,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1546.693495950894</v>
+        <v>1643.843206749281</v>
       </c>
       <c r="AB3" t="n">
-        <v>2116.254276461249</v>
+        <v>2249.178796718356</v>
       </c>
       <c r="AC3" t="n">
-        <v>1914.281938497318</v>
+        <v>2034.520329101823</v>
       </c>
       <c r="AD3" t="n">
-        <v>1546693.495950894</v>
+        <v>1643843.206749281</v>
       </c>
       <c r="AE3" t="n">
-        <v>2116254.276461249</v>
+        <v>2249178.796718356</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.40584555213176e-06</v>
+        <v>2.111136635345539e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.57708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1914281.938497318</v>
+        <v>2034520.329101823</v>
       </c>
     </row>
     <row r="4">
@@ -12508,28 +12508,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1257.134060066609</v>
+        <v>1346.017369431205</v>
       </c>
       <c r="AB4" t="n">
-        <v>1720.066281823635</v>
+        <v>1841.680346951136</v>
       </c>
       <c r="AC4" t="n">
-        <v>1555.905570014575</v>
+        <v>1665.912959452721</v>
       </c>
       <c r="AD4" t="n">
-        <v>1257134.060066609</v>
+        <v>1346017.369431205</v>
       </c>
       <c r="AE4" t="n">
-        <v>1720066.281823635</v>
+        <v>1841680.346951136</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.546159660650512e-06</v>
+        <v>2.32184417324016e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.43541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1555905.570014575</v>
+        <v>1665912.959452721</v>
       </c>
     </row>
     <row r="5">
@@ -12614,28 +12614,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1159.937756705459</v>
+        <v>1248.906317416075</v>
       </c>
       <c r="AB5" t="n">
-        <v>1587.078011566637</v>
+        <v>1708.808721346787</v>
       </c>
       <c r="AC5" t="n">
-        <v>1435.609513620695</v>
+        <v>1545.722415309553</v>
       </c>
       <c r="AD5" t="n">
-        <v>1159937.756705459</v>
+        <v>1248906.317416075</v>
       </c>
       <c r="AE5" t="n">
-        <v>1587078.011566637</v>
+        <v>1708808.721346787</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.591181080957549e-06</v>
+        <v>2.389452147417232e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.82916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1435609.513620696</v>
+        <v>1545722.415309553</v>
       </c>
     </row>
     <row r="6">
@@ -12720,28 +12720,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1163.66584774189</v>
+        <v>1252.634408452506</v>
       </c>
       <c r="AB6" t="n">
-        <v>1592.17895019445</v>
+        <v>1713.909659974601</v>
       </c>
       <c r="AC6" t="n">
-        <v>1440.223625825083</v>
+        <v>1550.33652751394</v>
       </c>
       <c r="AD6" t="n">
-        <v>1163665.84774189</v>
+        <v>1252634.408452506</v>
       </c>
       <c r="AE6" t="n">
-        <v>1592178.95019445</v>
+        <v>1713909.659974601</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.591499253539224e-06</v>
+        <v>2.389929942287741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.825</v>
       </c>
       <c r="AH6" t="n">
-        <v>1440223.625825083</v>
+        <v>1550336.52751394</v>
       </c>
     </row>
     <row r="7">
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1170.41188601758</v>
+        <v>1259.380446728197</v>
       </c>
       <c r="AB7" t="n">
-        <v>1601.409177377454</v>
+        <v>1723.139887157605</v>
       </c>
       <c r="AC7" t="n">
-        <v>1448.572933080446</v>
+        <v>1558.685834769303</v>
       </c>
       <c r="AD7" t="n">
-        <v>1170411.88601758</v>
+        <v>1259380.446728197</v>
       </c>
       <c r="AE7" t="n">
-        <v>1601409.177377454</v>
+        <v>1723139.887157605</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.591340167248387e-06</v>
+        <v>2.389691044852486e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.82708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1448572.933080446</v>
+        <v>1558685.834769303</v>
       </c>
     </row>
   </sheetData>
@@ -13123,28 +13123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1897.560956265628</v>
+        <v>2007.490392808734</v>
       </c>
       <c r="AB2" t="n">
-        <v>2596.326614843751</v>
+        <v>2746.73691966649</v>
       </c>
       <c r="AC2" t="n">
-        <v>2348.536846690353</v>
+        <v>2484.592203122999</v>
       </c>
       <c r="AD2" t="n">
-        <v>1897560.956265628</v>
+        <v>2007490.392808734</v>
       </c>
       <c r="AE2" t="n">
-        <v>2596326.614843751</v>
+        <v>2746736.919666491</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.221486591538542e-06</v>
+        <v>1.873451088574861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.26458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2348536.846690353</v>
+        <v>2484592.203122999</v>
       </c>
     </row>
     <row r="3">
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1160.155077757611</v>
+        <v>1246.509938324475</v>
       </c>
       <c r="AB3" t="n">
-        <v>1587.37535981772</v>
+        <v>1705.529889752876</v>
       </c>
       <c r="AC3" t="n">
-        <v>1435.878483372026</v>
+        <v>1542.756510801096</v>
       </c>
       <c r="AD3" t="n">
-        <v>1160155.077757611</v>
+        <v>1246509.938324475</v>
       </c>
       <c r="AE3" t="n">
-        <v>1587375.35981772</v>
+        <v>1705529.889752876</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.56716845695021e-06</v>
+        <v>2.403639525797376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.02916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1435878.483372027</v>
+        <v>1542756.510801096</v>
       </c>
     </row>
     <row r="4">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1077.592889441122</v>
+        <v>1163.862409153415</v>
       </c>
       <c r="AB4" t="n">
-        <v>1474.410131376419</v>
+        <v>1592.447894189377</v>
       </c>
       <c r="AC4" t="n">
-        <v>1333.694497785469</v>
+        <v>1440.466902182599</v>
       </c>
       <c r="AD4" t="n">
-        <v>1077592.889441123</v>
+        <v>1163862.409153415</v>
       </c>
       <c r="AE4" t="n">
-        <v>1474410.131376419</v>
+        <v>1592447.894189377</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.61522585914071e-06</v>
+        <v>2.477347410166758e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1333694.497785469</v>
+        <v>1440466.902182599</v>
       </c>
     </row>
     <row r="5">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1084.694737494032</v>
+        <v>1170.964257206325</v>
       </c>
       <c r="AB5" t="n">
-        <v>1484.127193193834</v>
+        <v>1602.164956006792</v>
       </c>
       <c r="AC5" t="n">
-        <v>1342.484176861012</v>
+        <v>1449.256581258142</v>
       </c>
       <c r="AD5" t="n">
-        <v>1084694.737494032</v>
+        <v>1170964.257206325</v>
       </c>
       <c r="AE5" t="n">
-        <v>1484127.193193834</v>
+        <v>1602164.956006792</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.61522585914071e-06</v>
+        <v>2.477347410166758e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1342484.176861011</v>
+        <v>1449256.581258142</v>
       </c>
     </row>
   </sheetData>
@@ -24431,28 +24431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1378.855223348367</v>
+        <v>1478.372012318964</v>
       </c>
       <c r="AB2" t="n">
-        <v>1886.610547384468</v>
+        <v>2022.77380842491</v>
       </c>
       <c r="AC2" t="n">
-        <v>1706.555084616627</v>
+        <v>1829.723115129707</v>
       </c>
       <c r="AD2" t="n">
-        <v>1378855.223348367</v>
+        <v>1478372.012318964</v>
       </c>
       <c r="AE2" t="n">
-        <v>1886610.547384468</v>
+        <v>2022773.80842491</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.400539995034371e-06</v>
+        <v>2.188316116077834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1706555.084616628</v>
+        <v>1829723.115129707</v>
       </c>
     </row>
     <row r="3">
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1023.521072589854</v>
+        <v>1107.786682234839</v>
       </c>
       <c r="AB3" t="n">
-        <v>1400.426686080312</v>
+        <v>1515.722610732907</v>
       </c>
       <c r="AC3" t="n">
-        <v>1266.771928672005</v>
+        <v>1371.064172094603</v>
       </c>
       <c r="AD3" t="n">
-        <v>1023521.072589854</v>
+        <v>1107786.682234839</v>
       </c>
       <c r="AE3" t="n">
-        <v>1400426.686080312</v>
+        <v>1515722.610732907</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.61602087309535e-06</v>
+        <v>2.525000737609026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.1</v>
       </c>
       <c r="AH3" t="n">
-        <v>1266771.928672005</v>
+        <v>1371064.172094603</v>
       </c>
     </row>
     <row r="4">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1028.320690394349</v>
+        <v>1112.586300039334</v>
       </c>
       <c r="AB4" t="n">
-        <v>1406.993734904615</v>
+        <v>1522.289659557211</v>
       </c>
       <c r="AC4" t="n">
-        <v>1272.712227573428</v>
+        <v>1377.004470996026</v>
       </c>
       <c r="AD4" t="n">
-        <v>1028320.690394349</v>
+        <v>1112586.300039334</v>
       </c>
       <c r="AE4" t="n">
-        <v>1406993.734904615</v>
+        <v>1522289.659557211</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.618420819231272e-06</v>
+        <v>2.528750606106589e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.06666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1272712.227573428</v>
+        <v>1377004.470996026</v>
       </c>
     </row>
   </sheetData>
@@ -24940,28 +24940,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>953.2201014023959</v>
+        <v>1040.721264820923</v>
       </c>
       <c r="AB2" t="n">
-        <v>1304.237795841673</v>
+        <v>1423.960747909788</v>
       </c>
       <c r="AC2" t="n">
-        <v>1179.763171115786</v>
+        <v>1288.059932670739</v>
       </c>
       <c r="AD2" t="n">
-        <v>953220.1014023959</v>
+        <v>1040721.264820923</v>
       </c>
       <c r="AE2" t="n">
-        <v>1304237.795841673</v>
+        <v>1423960.747909788</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.532829206364199e-06</v>
+        <v>2.498015173723643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.00625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1179763.171115786</v>
+        <v>1288059.932670739</v>
       </c>
     </row>
     <row r="3">
@@ -25046,28 +25046,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>956.8732926020147</v>
+        <v>1051.580781816584</v>
       </c>
       <c r="AB3" t="n">
-        <v>1309.236253208413</v>
+        <v>1438.819218151328</v>
       </c>
       <c r="AC3" t="n">
-        <v>1184.284582726823</v>
+        <v>1301.500331366421</v>
       </c>
       <c r="AD3" t="n">
-        <v>956873.2926020146</v>
+        <v>1051580.781816584</v>
       </c>
       <c r="AE3" t="n">
-        <v>1309236.253208413</v>
+        <v>1438819.218151328</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.533565170453199e-06</v>
+        <v>2.499214556834302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.99583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1184284.582726823</v>
+        <v>1301500.331366421</v>
       </c>
     </row>
   </sheetData>
@@ -25343,28 +25343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4037.050782431298</v>
+        <v>4194.612248230481</v>
       </c>
       <c r="AB2" t="n">
-        <v>5523.670982633522</v>
+        <v>5739.253531261261</v>
       </c>
       <c r="AC2" t="n">
-        <v>4996.499576571684</v>
+        <v>5191.507229330391</v>
       </c>
       <c r="AD2" t="n">
-        <v>4037050.782431297</v>
+        <v>4194612.248230481</v>
       </c>
       <c r="AE2" t="n">
-        <v>5523670.982633522</v>
+        <v>5739253.531261261</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.405903616508216e-07</v>
+        <v>1.241872064976333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>4996499.576571684</v>
+        <v>5191507.229330391</v>
       </c>
     </row>
     <row r="3">
@@ -25449,28 +25449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1946.538333460732</v>
+        <v>2054.231284570015</v>
       </c>
       <c r="AB3" t="n">
-        <v>2663.339623051478</v>
+        <v>2810.689869836888</v>
       </c>
       <c r="AC3" t="n">
-        <v>2409.154227448083</v>
+        <v>2542.441573487662</v>
       </c>
       <c r="AD3" t="n">
-        <v>1946538.333460732</v>
+        <v>2054231.284570016</v>
       </c>
       <c r="AE3" t="n">
-        <v>2663339.623051478</v>
+        <v>2810689.869836888</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.273425925868973e-06</v>
+        <v>1.881335019173372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.17291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2409154.227448083</v>
+        <v>2542441.573487662</v>
       </c>
     </row>
     <row r="4">
@@ -25555,28 +25555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1561.181119452749</v>
+        <v>1652.365020138162</v>
       </c>
       <c r="AB4" t="n">
-        <v>2136.076882085328</v>
+        <v>2260.838717752896</v>
       </c>
       <c r="AC4" t="n">
-        <v>1932.212702461837</v>
+        <v>2045.067443637629</v>
       </c>
       <c r="AD4" t="n">
-        <v>1561181.11945275</v>
+        <v>1652365.020138162</v>
       </c>
       <c r="AE4" t="n">
-        <v>2136076.882085328</v>
+        <v>2260838.717752896</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.429295967302669e-06</v>
+        <v>2.111614426425985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.42916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1932212.702461837</v>
+        <v>2045067.443637629</v>
       </c>
     </row>
     <row r="5">
@@ -25661,28 +25661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1373.29627088654</v>
+        <v>1464.394830717381</v>
       </c>
       <c r="AB5" t="n">
-        <v>1879.004543382522</v>
+        <v>2003.649611927892</v>
       </c>
       <c r="AC5" t="n">
-        <v>1699.674986961534</v>
+        <v>1812.424105105386</v>
       </c>
       <c r="AD5" t="n">
-        <v>1373296.27088654</v>
+        <v>1464394.830717381</v>
       </c>
       <c r="AE5" t="n">
-        <v>1879004.543382522</v>
+        <v>2003649.611927893</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.512539493872886e-06</v>
+        <v>2.23459681470206e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.19375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1699674.986961534</v>
+        <v>1812424.105105386</v>
       </c>
     </row>
     <row r="6">
@@ -25767,28 +25767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1263.908371665211</v>
+        <v>1355.092182842072</v>
       </c>
       <c r="AB6" t="n">
-        <v>1729.335193814377</v>
+        <v>1854.096907012397</v>
       </c>
       <c r="AC6" t="n">
-        <v>1564.289870053921</v>
+        <v>1677.144500448486</v>
       </c>
       <c r="AD6" t="n">
-        <v>1263908.371665211</v>
+        <v>1355092.182842072</v>
       </c>
       <c r="AE6" t="n">
-        <v>1729335.193814377</v>
+        <v>1854096.907012397</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.555315280169596e-06</v>
+        <v>2.297792940285699e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.6125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1564289.870053921</v>
+        <v>1677144.500448486</v>
       </c>
     </row>
     <row r="7">
@@ -25873,28 +25873,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1248.771684583696</v>
+        <v>1339.955495760557</v>
       </c>
       <c r="AB7" t="n">
-        <v>1708.624510765944</v>
+        <v>1833.386223963964</v>
       </c>
       <c r="AC7" t="n">
-        <v>1545.555785528004</v>
+        <v>1658.410415922569</v>
       </c>
       <c r="AD7" t="n">
-        <v>1248771.684583696</v>
+        <v>1339955.495760557</v>
       </c>
       <c r="AE7" t="n">
-        <v>1708624.510765944</v>
+        <v>1833386.223963964</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.56331650638337e-06</v>
+        <v>2.309613798308538e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.50416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1545555.785528004</v>
+        <v>1658410.415922569</v>
       </c>
     </row>
     <row r="8">
@@ -25979,28 +25979,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1254.193368714421</v>
+        <v>1345.377179891283</v>
       </c>
       <c r="AB8" t="n">
-        <v>1716.042698181426</v>
+        <v>1840.804411379446</v>
       </c>
       <c r="AC8" t="n">
-        <v>1552.265991548044</v>
+        <v>1665.120621942609</v>
       </c>
       <c r="AD8" t="n">
-        <v>1254193.368714421</v>
+        <v>1345377.179891283</v>
       </c>
       <c r="AE8" t="n">
-        <v>1716042.698181426</v>
+        <v>1840804.411379446</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.56347037611825e-06</v>
+        <v>2.309841122501285e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.50416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1552265.991548043</v>
+        <v>1665120.621942609</v>
       </c>
     </row>
   </sheetData>
@@ -26276,28 +26276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6544.662619299074</v>
+        <v>6757.716508607598</v>
       </c>
       <c r="AB2" t="n">
-        <v>8954.69612586272</v>
+        <v>9246.205856488885</v>
       </c>
       <c r="AC2" t="n">
-        <v>8100.072495604991</v>
+        <v>8363.760946676663</v>
       </c>
       <c r="AD2" t="n">
-        <v>6544662.619299075</v>
+        <v>6757716.508607598</v>
       </c>
       <c r="AE2" t="n">
-        <v>8954696.125862719</v>
+        <v>9246205.856488885</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.485494827703249e-07</v>
+        <v>9.418034639811595e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.62916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>8100072.495604991</v>
+        <v>8363760.946676662</v>
       </c>
     </row>
     <row r="3">
@@ -26382,28 +26382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2524.493211010439</v>
+        <v>2643.728378579741</v>
       </c>
       <c r="AB3" t="n">
-        <v>3454.122984084855</v>
+        <v>3617.265800637523</v>
       </c>
       <c r="AC3" t="n">
-        <v>3124.466334375722</v>
+        <v>3272.039029488978</v>
       </c>
       <c r="AD3" t="n">
-        <v>2524493.211010439</v>
+        <v>2643728.378579741</v>
       </c>
       <c r="AE3" t="n">
-        <v>3454122.984084854</v>
+        <v>3617265.800637523</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.123915198765218e-06</v>
+        <v>1.63211482784115e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.48333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3124466.334375722</v>
+        <v>3272039.029488978</v>
       </c>
     </row>
     <row r="4">
@@ -26488,28 +26488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1962.166774427027</v>
+        <v>2072.872869647071</v>
       </c>
       <c r="AB4" t="n">
-        <v>2684.723145459717</v>
+        <v>2836.196108948005</v>
       </c>
       <c r="AC4" t="n">
-        <v>2428.496936489641</v>
+        <v>2565.513532936246</v>
       </c>
       <c r="AD4" t="n">
-        <v>1962166.774427027</v>
+        <v>2072872.869647071</v>
       </c>
       <c r="AE4" t="n">
-        <v>2684723.145459717</v>
+        <v>2836196.108948005</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297692060632346e-06</v>
+        <v>1.884468202277802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.80416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2428496.936489641</v>
+        <v>2565513.532936246</v>
       </c>
     </row>
     <row r="5">
@@ -26594,28 +26594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1727.268331918031</v>
+        <v>1821.001891819783</v>
       </c>
       <c r="AB5" t="n">
-        <v>2363.324733431008</v>
+        <v>2491.575125321398</v>
       </c>
       <c r="AC5" t="n">
-        <v>2137.772337819447</v>
+        <v>2253.782692308375</v>
       </c>
       <c r="AD5" t="n">
-        <v>1727268.331918031</v>
+        <v>1821001.891819783</v>
       </c>
       <c r="AE5" t="n">
-        <v>2363324.733431008</v>
+        <v>2491575.125321398</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.390363168709953e-06</v>
+        <v>2.019042314072093e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.21666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2137772.337819447</v>
+        <v>2253782.692308375</v>
       </c>
     </row>
     <row r="6">
@@ -26700,28 +26700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1580.704697031642</v>
+        <v>1674.352916078823</v>
       </c>
       <c r="AB6" t="n">
-        <v>2162.789902248222</v>
+        <v>2290.923527016414</v>
       </c>
       <c r="AC6" t="n">
-        <v>1956.376269472343</v>
+        <v>2072.281000929331</v>
       </c>
       <c r="AD6" t="n">
-        <v>1580704.697031642</v>
+        <v>1674352.916078822</v>
       </c>
       <c r="AE6" t="n">
-        <v>2162789.902248221</v>
+        <v>2290923.527016414</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.447300297512835e-06</v>
+        <v>2.101724648358504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.34375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1956376.269472343</v>
+        <v>2072281.000929331</v>
       </c>
     </row>
     <row r="7">
@@ -26806,28 +26806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1467.220300720808</v>
+        <v>1560.953771114009</v>
       </c>
       <c r="AB7" t="n">
-        <v>2007.51554463752</v>
+        <v>2135.765814058363</v>
       </c>
       <c r="AC7" t="n">
-        <v>1815.921078623078</v>
+        <v>1931.931322330778</v>
       </c>
       <c r="AD7" t="n">
-        <v>1467220.300720808</v>
+        <v>1560953.771114009</v>
       </c>
       <c r="AE7" t="n">
-        <v>2007515.54463752</v>
+        <v>2135765.814058363</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.488075585066982e-06</v>
+        <v>2.160937257547992e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.75833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1815921.078623078</v>
+        <v>1931931.322330778</v>
       </c>
     </row>
     <row r="8">
@@ -26912,28 +26912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1390.485447400563</v>
+        <v>1475.690024461609</v>
       </c>
       <c r="AB8" t="n">
-        <v>1902.523533021955</v>
+        <v>2019.104194317524</v>
       </c>
       <c r="AC8" t="n">
-        <v>1720.949357238888</v>
+        <v>1826.403723842394</v>
       </c>
       <c r="AD8" t="n">
-        <v>1390485.447400563</v>
+        <v>1475690.024461609</v>
       </c>
       <c r="AE8" t="n">
-        <v>1902523.533021955</v>
+        <v>2019104.194317524</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.514320042874561e-06</v>
+        <v>2.199048646008135e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="AH8" t="n">
-        <v>1720949.357238888</v>
+        <v>1826403.723842394</v>
       </c>
     </row>
     <row r="9">
@@ -27018,28 +27018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1364.590048841791</v>
+        <v>1449.794625902837</v>
       </c>
       <c r="AB9" t="n">
-        <v>1867.092306289487</v>
+        <v>1983.672967585056</v>
       </c>
       <c r="AC9" t="n">
-        <v>1688.899637057728</v>
+        <v>1794.354003661233</v>
       </c>
       <c r="AD9" t="n">
-        <v>1364590.048841791</v>
+        <v>1449794.625902837</v>
       </c>
       <c r="AE9" t="n">
-        <v>1867092.306289487</v>
+        <v>1983672.967585056</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.522919921704162e-06</v>
+        <v>2.211537123582645e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.28333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1688899.637057728</v>
+        <v>1794354.003661233</v>
       </c>
     </row>
     <row r="10">
@@ -27124,28 +27124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1366.135705947224</v>
+        <v>1451.34028300827</v>
       </c>
       <c r="AB10" t="n">
-        <v>1869.207142530719</v>
+        <v>1985.787803826288</v>
       </c>
       <c r="AC10" t="n">
-        <v>1690.812636296288</v>
+        <v>1796.267002899794</v>
       </c>
       <c r="AD10" t="n">
-        <v>1366135.705947224</v>
+        <v>1451340.28300827</v>
       </c>
       <c r="AE10" t="n">
-        <v>1869207.142530719</v>
+        <v>1985787.803826288</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.52425438566048e-06</v>
+        <v>2.213474990792483e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.26666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1690812.636296288</v>
+        <v>1796267.002899794</v>
       </c>
     </row>
     <row r="11">
@@ -27230,28 +27230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1372.349845371312</v>
+        <v>1457.554422432358</v>
       </c>
       <c r="AB11" t="n">
-        <v>1877.709602239241</v>
+        <v>1994.290263534809</v>
       </c>
       <c r="AC11" t="n">
-        <v>1698.503633183505</v>
+        <v>1803.957999787011</v>
       </c>
       <c r="AD11" t="n">
-        <v>1372349.845371312</v>
+        <v>1457554.422432358</v>
       </c>
       <c r="AE11" t="n">
-        <v>1877709.602239241</v>
+        <v>1994290.263534809</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.524106111887556e-06</v>
+        <v>2.213259672213612e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.26666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1698503.633183505</v>
+        <v>1803957.999787011</v>
       </c>
     </row>
   </sheetData>
@@ -27527,28 +27527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>953.6293630926034</v>
+        <v>1053.163407330238</v>
       </c>
       <c r="AB2" t="n">
-        <v>1304.797765741567</v>
+        <v>1440.98463619962</v>
       </c>
       <c r="AC2" t="n">
-        <v>1180.269698274357</v>
+        <v>1303.459084955367</v>
       </c>
       <c r="AD2" t="n">
-        <v>953629.3630926034</v>
+        <v>1053163.407330238</v>
       </c>
       <c r="AE2" t="n">
-        <v>1304797.765741567</v>
+        <v>1440984.63619962</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.408537367580212e-06</v>
+        <v>2.347947872449515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.18125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1180269.698274357</v>
+        <v>1303459.084955367</v>
       </c>
     </row>
   </sheetData>
@@ -27824,28 +27824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2175.671961574733</v>
+        <v>2294.810076211973</v>
       </c>
       <c r="AB2" t="n">
-        <v>2976.850361699291</v>
+        <v>3139.860386148812</v>
       </c>
       <c r="AC2" t="n">
-        <v>2692.743941214434</v>
+        <v>2840.19651771638</v>
       </c>
       <c r="AD2" t="n">
-        <v>2175671.961574733</v>
+        <v>2294810.076211974</v>
       </c>
       <c r="AE2" t="n">
-        <v>2976850.361699291</v>
+        <v>3139860.386148812</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.145547708795186e-06</v>
+        <v>1.743416643513679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.69583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2692743.941214433</v>
+        <v>2840196.51771638</v>
       </c>
     </row>
     <row r="3">
@@ -27930,28 +27930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1282.324605257298</v>
+        <v>1377.379163911924</v>
       </c>
       <c r="AB3" t="n">
-        <v>1754.533097081956</v>
+        <v>1884.59093774438</v>
       </c>
       <c r="AC3" t="n">
-        <v>1587.082920799121</v>
+        <v>1704.72822368605</v>
       </c>
       <c r="AD3" t="n">
-        <v>1282324.605257298</v>
+        <v>1377379.163911924</v>
       </c>
       <c r="AE3" t="n">
-        <v>1754533.097081956</v>
+        <v>1884590.93774438</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.512318935303239e-06</v>
+        <v>2.301608201793325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.49583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1587082.920799121</v>
+        <v>1704728.22368605</v>
       </c>
     </row>
     <row r="4">
@@ -28036,28 +28036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1110.649766377252</v>
+        <v>1197.847124910635</v>
       </c>
       <c r="AB4" t="n">
-        <v>1519.640008766915</v>
+        <v>1638.947281588249</v>
       </c>
       <c r="AC4" t="n">
-        <v>1374.607699158348</v>
+        <v>1482.528453310422</v>
       </c>
       <c r="AD4" t="n">
-        <v>1110649.766377253</v>
+        <v>1197847.124910635</v>
       </c>
       <c r="AE4" t="n">
-        <v>1519640.008766915</v>
+        <v>1638947.281588249</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.605563089504529e-06</v>
+        <v>2.443517097509121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.18958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1374607.699158348</v>
+        <v>1482528.453310423</v>
       </c>
     </row>
     <row r="5">
@@ -28142,28 +28142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1112.058507635049</v>
+        <v>1199.255866168432</v>
       </c>
       <c r="AB5" t="n">
-        <v>1521.567510705111</v>
+        <v>1640.874783526444</v>
       </c>
       <c r="AC5" t="n">
-        <v>1376.351243016828</v>
+        <v>1484.271997168902</v>
       </c>
       <c r="AD5" t="n">
-        <v>1112058.507635049</v>
+        <v>1199255.866168431</v>
       </c>
       <c r="AE5" t="n">
-        <v>1521567.510705111</v>
+        <v>1640874.783526444</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.608992384142405e-06</v>
+        <v>2.44873616372634e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.14375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1376351.243016828</v>
+        <v>1484271.997168902</v>
       </c>
     </row>
   </sheetData>
@@ -28439,28 +28439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3179.712479416017</v>
+        <v>3326.448527115416</v>
       </c>
       <c r="AB2" t="n">
-        <v>4350.622893351439</v>
+        <v>4551.393627351312</v>
       </c>
       <c r="AC2" t="n">
-        <v>3935.405550547395</v>
+        <v>4117.015007477808</v>
       </c>
       <c r="AD2" t="n">
-        <v>3179712.479416017</v>
+        <v>3326448.527115416</v>
       </c>
       <c r="AE2" t="n">
-        <v>4350622.893351439</v>
+        <v>4551393.627351312</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.508825976439761e-07</v>
+        <v>1.419582798781495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.44375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3935405.550547395</v>
+        <v>4117015.007477808</v>
       </c>
     </row>
     <row r="3">
@@ -28545,28 +28545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1679.122115450736</v>
+        <v>1777.03151794109</v>
       </c>
       <c r="AB3" t="n">
-        <v>2297.448955999294</v>
+        <v>2431.412919944581</v>
       </c>
       <c r="AC3" t="n">
-        <v>2078.183652128582</v>
+        <v>2199.362283374535</v>
       </c>
       <c r="AD3" t="n">
-        <v>1679122.115450736</v>
+        <v>1777031.51794109</v>
       </c>
       <c r="AE3" t="n">
-        <v>2297448.955999294</v>
+        <v>2431412.919944581</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.359504269482054e-06</v>
+        <v>2.029618462477445e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.09166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2078183.652128582</v>
+        <v>2199362.283374535</v>
       </c>
     </row>
     <row r="4">
@@ -28651,28 +28651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1357.992337226881</v>
+        <v>1447.820769910224</v>
       </c>
       <c r="AB4" t="n">
-        <v>1858.065026187474</v>
+        <v>1980.972250735583</v>
       </c>
       <c r="AC4" t="n">
-        <v>1680.733907898784</v>
+        <v>1791.911039437394</v>
       </c>
       <c r="AD4" t="n">
-        <v>1357992.337226881</v>
+        <v>1447820.769910224</v>
       </c>
       <c r="AE4" t="n">
-        <v>1858065.026187474</v>
+        <v>1980972.250735583</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.504935222329388e-06</v>
+        <v>2.246733887224945e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.76458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1680733.907898784</v>
+        <v>1791911.039437394</v>
       </c>
     </row>
     <row r="5">
@@ -28757,28 +28757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1207.787566595022</v>
+        <v>1297.530658423793</v>
       </c>
       <c r="AB5" t="n">
-        <v>1652.548232442163</v>
+        <v>1775.338689868075</v>
       </c>
       <c r="AC5" t="n">
-        <v>1494.831348503894</v>
+        <v>1605.902857010565</v>
       </c>
       <c r="AD5" t="n">
-        <v>1207787.566595022</v>
+        <v>1297530.658423793</v>
       </c>
       <c r="AE5" t="n">
-        <v>1652548.232442163</v>
+        <v>1775338.689868075</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.572383739920206e-06</v>
+        <v>2.347428500432164e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.83125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1494831.348503894</v>
+        <v>1605902.857010565</v>
       </c>
     </row>
     <row r="6">
@@ -28863,28 +28863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1188.732639558158</v>
+        <v>1278.47573138693</v>
       </c>
       <c r="AB6" t="n">
-        <v>1626.476440626275</v>
+        <v>1749.266898052186</v>
       </c>
       <c r="AC6" t="n">
-        <v>1471.247811906925</v>
+        <v>1582.319320413596</v>
       </c>
       <c r="AD6" t="n">
-        <v>1188732.639558158</v>
+        <v>1278475.73138693</v>
       </c>
       <c r="AE6" t="n">
-        <v>1626476.440626275</v>
+        <v>1749266.898052186</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.582603212282451e-06</v>
+        <v>2.362685260009016e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.69583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1471247.811906925</v>
+        <v>1582319.320413596</v>
       </c>
     </row>
     <row r="7">
@@ -28969,28 +28969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1193.639047546397</v>
+        <v>1283.382139375168</v>
       </c>
       <c r="AB7" t="n">
-        <v>1633.189604491227</v>
+        <v>1755.980061917138</v>
       </c>
       <c r="AC7" t="n">
-        <v>1477.32028083459</v>
+        <v>1588.391789341262</v>
       </c>
       <c r="AD7" t="n">
-        <v>1193639.047546397</v>
+        <v>1283382.139375168</v>
       </c>
       <c r="AE7" t="n">
-        <v>1633189.604491227</v>
+        <v>1755980.061917138</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.583703770844539e-06</v>
+        <v>2.364328295655754e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.68333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1477320.28083459</v>
+        <v>1588391.789341262</v>
       </c>
     </row>
   </sheetData>
